--- a/01_Input/00_CO Validation/Mauritius - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Mauritius - Energy Projects.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="350" documentId="11_22A4E67450481778D11D2BA3F348756C7829339C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77F5B9DB-C42F-47BE-908C-51476CDCF179}"/>
+  <xr:revisionPtr revIDLastSave="382" documentId="11_22A4E67450481778D11D2BA3F348756C7829339C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A904EC2D-5628-413B-9A00-A84CB28D3C13}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,6 +15,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="109">
   <si>
     <t>Project ID</t>
   </si>
@@ -202,6 +205,9 @@
   <si>
     <t xml:space="preserve">Based on estimate of low-emission MW divided by effective capacity of the power system, multiplied by total number of households/household composition in Mauritius and Rodrigues.
 Installation of rooftopps solar PV panels in households is ongoing. </t>
+  </si>
+  <si>
+    <t>Energy Storage (MW)</t>
   </si>
   <si>
     <t>Battery energy storage system procured MW</t>
@@ -575,7 +581,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -663,12 +669,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -785,14 +866,86 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -813,18 +966,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1131,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1EA8529-86F5-4E00-BF5D-B1BB315D4BA2}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1148,17 +1289,17 @@
     <col min="13" max="13" width="56.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="48" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="14" t="s">
@@ -1176,13 +1317,13 @@
       <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="42" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="42" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="12" t="s">
@@ -1206,22 +1347,21 @@
       <c r="S1" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="42"/>
-    </row>
-    <row r="2" spans="1:20" ht="60.75">
-      <c r="A2" s="45">
+    </row>
+    <row r="2" spans="1:19" ht="60.75">
+      <c r="A2" s="52">
         <v>6486</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="25">
+      <c r="D2" s="50">
         <v>5600607</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="46" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="15" t="s">
@@ -1233,31 +1373,30 @@
       <c r="H2" s="8">
         <v>0.75</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="25" t="s">
+      <c r="K2" s="65"/>
+      <c r="L2" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="35"/>
+      <c r="M2" s="65"/>
       <c r="N2" s="17"/>
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
       <c r="R2" s="17"/>
       <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-    </row>
-    <row r="3" spans="1:20" ht="152.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="22" t="s">
+    </row>
+    <row r="3" spans="1:19" ht="152.25">
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="47" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="23" t="s">
@@ -1269,13 +1408,17 @@
       <c r="H3" s="24">
         <v>700000</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="53"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="36" t="s">
+      <c r="J3" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="65"/>
+      <c r="L3" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="66" t="s">
         <v>29</v>
       </c>
       <c r="N3" s="17"/>
@@ -1284,14 +1427,13 @@
       <c r="Q3" s="17"/>
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-    </row>
-    <row r="4" spans="1:20" ht="106.5">
-      <c r="A4" s="45"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="9" t="s">
+    </row>
+    <row r="4" spans="1:19" ht="106.5">
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="46" t="s">
         <v>30</v>
       </c>
       <c r="F4" s="9" t="s">
@@ -1303,27 +1445,30 @@
       <c r="H4" s="8">
         <v>1</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="53"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="37"/>
+      <c r="J4" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="65"/>
+      <c r="L4" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="67"/>
       <c r="N4" s="17"/>
       <c r="O4" s="17"/>
       <c r="P4" s="17"/>
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
       <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-    </row>
-    <row r="5" spans="1:20" ht="60.75">
-      <c r="A5" s="45"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="9" t="s">
+    </row>
+    <row r="5" spans="1:19" ht="60.75">
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="46" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="10" t="s">
@@ -1335,35 +1480,38 @@
       <c r="H5" s="8">
         <v>21000</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="53"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="37"/>
+      <c r="J5" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="65"/>
+      <c r="L5" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="67"/>
       <c r="N5" s="17"/>
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
       <c r="Q5" s="17"/>
       <c r="R5" s="17"/>
       <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-    </row>
-    <row r="6" spans="1:20" ht="148.5" customHeight="1">
-      <c r="A6" s="25">
+    </row>
+    <row r="6" spans="1:19" ht="148.5" customHeight="1">
+      <c r="A6" s="52">
         <v>5681</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="50">
         <v>28210000</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="61" t="s">
         <v>39</v>
       </c>
       <c r="F6" s="5" t="s">
@@ -1378,11 +1526,11 @@
       <c r="I6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="54" t="s">
+      <c r="J6" s="45" t="s">
         <v>42</v>
       </c>
       <c r="K6" s="17"/>
-      <c r="L6" s="25" t="s">
+      <c r="L6" s="49" t="s">
         <v>25</v>
       </c>
       <c r="M6" s="37"/>
@@ -1392,14 +1540,13 @@
       <c r="Q6" s="17"/>
       <c r="R6" s="17"/>
       <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-    </row>
-    <row r="7" spans="1:20" ht="151.5" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="5" t="s">
+    </row>
+    <row r="7" spans="1:19" ht="151.5" customHeight="1">
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="61" t="s">
         <v>43</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -1414,9 +1561,13 @@
       <c r="I7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="55"/>
+      <c r="J7" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="K7" s="17"/>
-      <c r="L7" s="25"/>
+      <c r="L7" s="49" t="s">
+        <v>25</v>
+      </c>
       <c r="M7" s="37"/>
       <c r="N7" s="17"/>
       <c r="O7" s="17"/>
@@ -1424,14 +1575,13 @@
       <c r="Q7" s="17"/>
       <c r="R7" s="17"/>
       <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-    </row>
-    <row r="8" spans="1:20" ht="105" customHeight="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="5" t="s">
+    </row>
+    <row r="8" spans="1:19" ht="105" customHeight="1">
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="61" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -1446,9 +1596,13 @@
       <c r="I8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="55"/>
+      <c r="J8" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="K8" s="17"/>
-      <c r="L8" s="25"/>
+      <c r="L8" s="49" t="s">
+        <v>25</v>
+      </c>
       <c r="M8" s="37"/>
       <c r="N8" s="17"/>
       <c r="O8" s="17"/>
@@ -1456,29 +1610,33 @@
       <c r="Q8" s="17"/>
       <c r="R8" s="17"/>
       <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-    </row>
-    <row r="9" spans="1:20" ht="147.75" customHeight="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="5"/>
+    </row>
+    <row r="9" spans="1:19" ht="147.75" customHeight="1">
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="E9" s="51" t="s">
+        <v>50</v>
+      </c>
       <c r="F9" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9" s="5">
         <v>18</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="55"/>
+        <v>53</v>
+      </c>
+      <c r="J9" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="K9" s="17"/>
-      <c r="L9" s="25"/>
+      <c r="L9" s="49" t="s">
+        <v>25</v>
+      </c>
       <c r="M9" s="37"/>
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
@@ -1486,29 +1644,32 @@
       <c r="Q9" s="17"/>
       <c r="R9" s="17"/>
       <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-    </row>
-    <row r="10" spans="1:20" ht="86.25" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="5" t="s">
+    </row>
+    <row r="10" spans="1:19" ht="86.25" customHeight="1">
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="61" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="55"/>
+        <v>56</v>
+      </c>
+      <c r="J10" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="K10" s="17"/>
-      <c r="L10" s="25"/>
+      <c r="L10" s="49" t="s">
+        <v>25</v>
+      </c>
       <c r="M10" s="38"/>
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
@@ -1516,18 +1677,17 @@
       <c r="Q10" s="17"/>
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-    </row>
-    <row r="11" spans="1:20" ht="262.5" customHeight="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="5" t="s">
+    </row>
+    <row r="11" spans="1:19" ht="262.5" customHeight="1">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="61" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G11" s="5">
         <v>5</v>
@@ -1536,13 +1696,17 @@
         <v>11</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="56"/>
+        <v>58</v>
+      </c>
+      <c r="J11" s="45" t="s">
+        <v>42</v>
+      </c>
       <c r="K11" s="17"/>
-      <c r="L11" s="25"/>
+      <c r="L11" s="49" t="s">
+        <v>25</v>
+      </c>
       <c r="M11" s="39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
@@ -1550,26 +1714,25 @@
       <c r="Q11" s="17"/>
       <c r="R11" s="17"/>
       <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-    </row>
-    <row r="12" spans="1:20" ht="106.5">
-      <c r="A12" s="25">
+    </row>
+    <row r="12" spans="1:19" ht="106.5">
+      <c r="A12" s="51">
         <v>5509</v>
       </c>
-      <c r="B12" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="25">
+      <c r="B12" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="51">
         <v>4532164</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>60</v>
+      <c r="E12" s="60" t="s">
+        <v>61</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G12" s="19">
         <v>4</v>
@@ -1578,9 +1741,9 @@
         <v>40</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="44" t="s">
         <v>24</v>
       </c>
       <c r="K12" s="17"/>
@@ -1588,7 +1751,7 @@
         <v>25</v>
       </c>
       <c r="M12" s="40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
@@ -1596,18 +1759,17 @@
       <c r="Q12" s="17"/>
       <c r="R12" s="17"/>
       <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-    </row>
-    <row r="13" spans="1:20" ht="30.75">
-      <c r="A13" s="25"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="18" t="s">
-        <v>64</v>
+    </row>
+    <row r="13" spans="1:19" ht="30.75">
+      <c r="A13" s="51"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="60" t="s">
+        <v>65</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G13" s="19">
         <v>0</v>
@@ -1616,13 +1778,17 @@
         <v>435</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" s="55"/>
+        <v>67</v>
+      </c>
+      <c r="J13" s="44" t="s">
+        <v>24</v>
+      </c>
       <c r="K13" s="17"/>
-      <c r="L13" s="25"/>
+      <c r="L13" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="M13" s="41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
@@ -1630,18 +1796,17 @@
       <c r="Q13" s="17"/>
       <c r="R13" s="17"/>
       <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-    </row>
-    <row r="14" spans="1:20" ht="45.75">
-      <c r="A14" s="25"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="18" t="s">
-        <v>64</v>
+    </row>
+    <row r="14" spans="1:19" ht="45.75">
+      <c r="A14" s="51"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="60" t="s">
+        <v>65</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G14" s="19">
         <v>0</v>
@@ -1650,11 +1815,15 @@
         <v>170</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J14" s="55"/>
+        <v>69</v>
+      </c>
+      <c r="J14" s="44" t="s">
+        <v>24</v>
+      </c>
       <c r="K14" s="17"/>
-      <c r="L14" s="25"/>
+      <c r="L14" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="M14" s="35"/>
       <c r="N14" s="17"/>
       <c r="O14" s="17"/>
@@ -1662,31 +1831,34 @@
       <c r="Q14" s="17"/>
       <c r="R14" s="17"/>
       <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-    </row>
-    <row r="15" spans="1:20" ht="76.5">
-      <c r="A15" s="25"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="18" t="s">
-        <v>69</v>
+    </row>
+    <row r="15" spans="1:19" ht="76.5">
+      <c r="A15" s="51"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="60" t="s">
+        <v>70</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G15" s="34"/>
       <c r="H15" s="34">
         <v>31</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="J15" s="55"/>
+        <v>72</v>
+      </c>
+      <c r="J15" s="44" t="s">
+        <v>24</v>
+      </c>
       <c r="K15" s="33">
         <v>0.33</v>
       </c>
-      <c r="L15" s="25"/>
+      <c r="L15" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="M15" s="35"/>
       <c r="N15" s="17"/>
       <c r="O15" s="17"/>
@@ -1694,18 +1866,17 @@
       <c r="Q15" s="17"/>
       <c r="R15" s="17"/>
       <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-    </row>
-    <row r="16" spans="1:20" ht="81">
-      <c r="A16" s="25"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="18" t="s">
+    </row>
+    <row r="16" spans="1:19" ht="81">
+      <c r="A16" s="51"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="60" t="s">
         <v>30</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G16" s="19">
         <v>0</v>
@@ -1714,11 +1885,15 @@
         <v>50</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="J16" s="55"/>
+        <v>74</v>
+      </c>
+      <c r="J16" s="44" t="s">
+        <v>24</v>
+      </c>
       <c r="K16" s="17"/>
-      <c r="L16" s="25"/>
+      <c r="L16" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="M16" s="35"/>
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
@@ -1726,18 +1901,17 @@
       <c r="Q16" s="17"/>
       <c r="R16" s="17"/>
       <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-    </row>
-    <row r="17" spans="1:20" ht="76.5">
-      <c r="A17" s="25"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="18" t="s">
+    </row>
+    <row r="17" spans="1:19" ht="76.5">
+      <c r="A17" s="51"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="60" t="s">
         <v>30</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G17" s="19">
         <v>0</v>
@@ -1746,11 +1920,15 @@
         <v>14</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="J17" s="55"/>
+        <v>76</v>
+      </c>
+      <c r="J17" s="44" t="s">
+        <v>24</v>
+      </c>
       <c r="K17" s="17"/>
-      <c r="L17" s="25"/>
+      <c r="L17" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="M17" s="35"/>
       <c r="N17" s="17"/>
       <c r="O17" s="17"/>
@@ -1758,18 +1936,17 @@
       <c r="Q17" s="17"/>
       <c r="R17" s="17"/>
       <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-    </row>
-    <row r="18" spans="1:20" ht="106.5">
-      <c r="A18" s="25"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="18" t="s">
-        <v>60</v>
+    </row>
+    <row r="18" spans="1:19" ht="106.5">
+      <c r="A18" s="49"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="60" t="s">
+        <v>61</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G18" s="19">
         <v>108</v>
@@ -1777,12 +1954,16 @@
       <c r="H18" s="19">
         <v>348</v>
       </c>
-      <c r="I18" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="J18" s="56"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="25"/>
+      <c r="I18" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="64"/>
+      <c r="L18" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="M18" s="35"/>
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
@@ -1790,12 +1971,8 @@
       <c r="Q18" s="17"/>
       <c r="R18" s="17"/>
       <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A5"/>
-  </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E7" xr:uid="{ACE05F1D-CAE5-4EDA-A504-3E8FC4C61FB0}"/>
   </dataValidations>
@@ -1824,7 +2001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0215DEF6-5CDC-474D-AA5E-D86403D4EF07}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1898,7 +2075,7 @@
       <c r="T1" s="42"/>
     </row>
     <row r="2" spans="1:20" ht="60.75">
-      <c r="A2" s="45">
+      <c r="A2" s="69">
         <v>6486</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -1925,11 +2102,11 @@
       <c r="I2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="J2" s="70" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="17"/>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="71" t="s">
         <v>25</v>
       </c>
       <c r="M2" s="35"/>
@@ -1942,7 +2119,7 @@
       <c r="T2" s="17"/>
     </row>
     <row r="3" spans="1:20" ht="152.25">
-      <c r="A3" s="45"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
@@ -1961,9 +2138,9 @@
       <c r="I3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="43"/>
+      <c r="J3" s="70"/>
       <c r="K3" s="17"/>
-      <c r="L3" s="44"/>
+      <c r="L3" s="71"/>
       <c r="M3" s="36" t="s">
         <v>29</v>
       </c>
@@ -1976,7 +2153,7 @@
       <c r="T3" s="17"/>
     </row>
     <row r="4" spans="1:20" ht="106.5">
-      <c r="A4" s="45"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
@@ -1995,9 +2172,9 @@
       <c r="I4" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="43"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="17"/>
-      <c r="L4" s="44"/>
+      <c r="L4" s="71"/>
       <c r="M4" s="37"/>
       <c r="N4" s="17"/>
       <c r="O4" s="17"/>
@@ -2008,7 +2185,7 @@
       <c r="T4" s="17"/>
     </row>
     <row r="5" spans="1:20" ht="60.75">
-      <c r="A5" s="45"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
@@ -2027,9 +2204,9 @@
       <c r="I5" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="43"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="17"/>
-      <c r="L5" s="44"/>
+      <c r="L5" s="71"/>
       <c r="M5" s="37"/>
       <c r="N5" s="17"/>
       <c r="O5" s="17"/>
@@ -2067,11 +2244,11 @@
       <c r="I6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="46" t="s">
+      <c r="J6" s="72" t="s">
         <v>42</v>
       </c>
       <c r="K6" s="17"/>
-      <c r="L6" s="45" t="s">
+      <c r="L6" s="69" t="s">
         <v>25</v>
       </c>
       <c r="M6" s="37"/>
@@ -2103,9 +2280,9 @@
       <c r="I7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="47"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="17"/>
-      <c r="L7" s="45"/>
+      <c r="L7" s="69"/>
       <c r="M7" s="37"/>
       <c r="N7" s="17"/>
       <c r="O7" s="17"/>
@@ -2135,9 +2312,9 @@
       <c r="I8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="47"/>
+      <c r="J8" s="73"/>
       <c r="K8" s="17"/>
-      <c r="L8" s="45"/>
+      <c r="L8" s="69"/>
       <c r="M8" s="37"/>
       <c r="N8" s="17"/>
       <c r="O8" s="17"/>
@@ -2154,20 +2331,20 @@
       <c r="D9" s="25"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9" s="5">
         <v>18</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="47"/>
+        <v>53</v>
+      </c>
+      <c r="J9" s="73"/>
       <c r="K9" s="17"/>
-      <c r="L9" s="45"/>
+      <c r="L9" s="69"/>
       <c r="M9" s="37"/>
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
@@ -2186,18 +2363,18 @@
         <v>30</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="47"/>
+        <v>56</v>
+      </c>
+      <c r="J10" s="73"/>
       <c r="K10" s="17"/>
-      <c r="L10" s="45"/>
+      <c r="L10" s="69"/>
       <c r="M10" s="38"/>
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
@@ -2216,7 +2393,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G11" s="5">
         <v>5</v>
@@ -2225,13 +2402,13 @@
         <v>11</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="48"/>
+        <v>58</v>
+      </c>
+      <c r="J11" s="74"/>
       <c r="K11" s="17"/>
-      <c r="L11" s="45"/>
+      <c r="L11" s="69"/>
       <c r="M11" s="39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
@@ -2246,19 +2423,19 @@
         <v>5509</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12" s="25">
         <v>4532164</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G12" s="19">
         <v>4</v>
@@ -2267,15 +2444,15 @@
         <v>40</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="72" t="s">
         <v>24</v>
       </c>
       <c r="K12" s="17"/>
-      <c r="L12" s="45"/>
+      <c r="L12" s="69"/>
       <c r="M12" s="40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
@@ -2291,10 +2468,10 @@
       <c r="C13" s="31"/>
       <c r="D13" s="25"/>
       <c r="E13" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G13" s="19">
         <v>0</v>
@@ -2303,13 +2480,13 @@
         <v>435</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" s="47"/>
+        <v>67</v>
+      </c>
+      <c r="J13" s="73"/>
       <c r="K13" s="17"/>
-      <c r="L13" s="45"/>
+      <c r="L13" s="69"/>
       <c r="M13" s="41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
@@ -2325,10 +2502,10 @@
       <c r="C14" s="31"/>
       <c r="D14" s="25"/>
       <c r="E14" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G14" s="19">
         <v>0</v>
@@ -2337,11 +2514,11 @@
         <v>170</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J14" s="47"/>
+        <v>69</v>
+      </c>
+      <c r="J14" s="73"/>
       <c r="K14" s="17"/>
-      <c r="L14" s="45"/>
+      <c r="L14" s="69"/>
       <c r="M14" s="35"/>
       <c r="N14" s="17"/>
       <c r="O14" s="17"/>
@@ -2357,23 +2534,23 @@
       <c r="C15" s="31"/>
       <c r="D15" s="25"/>
       <c r="E15" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G15" s="34">
         <v>31</v>
       </c>
       <c r="H15" s="34"/>
       <c r="I15" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="J15" s="47"/>
+        <v>72</v>
+      </c>
+      <c r="J15" s="73"/>
       <c r="K15" s="33">
         <v>0.33</v>
       </c>
-      <c r="L15" s="45"/>
+      <c r="L15" s="69"/>
       <c r="M15" s="35"/>
       <c r="N15" s="17"/>
       <c r="O15" s="17"/>
@@ -2392,7 +2569,7 @@
         <v>30</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G16" s="19">
         <v>0</v>
@@ -2401,11 +2578,11 @@
         <v>50</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="J16" s="47"/>
+        <v>74</v>
+      </c>
+      <c r="J16" s="73"/>
       <c r="K16" s="17"/>
-      <c r="L16" s="45"/>
+      <c r="L16" s="69"/>
       <c r="M16" s="35"/>
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
@@ -2424,7 +2601,7 @@
         <v>30</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G17" s="19">
         <v>0</v>
@@ -2433,11 +2610,11 @@
         <v>14</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="J17" s="47"/>
+        <v>76</v>
+      </c>
+      <c r="J17" s="73"/>
       <c r="K17" s="17"/>
-      <c r="L17" s="45"/>
+      <c r="L17" s="69"/>
       <c r="M17" s="35"/>
       <c r="N17" s="17"/>
       <c r="O17" s="17"/>
@@ -2453,10 +2630,10 @@
       <c r="C18" s="32"/>
       <c r="D18" s="25"/>
       <c r="E18" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G18" s="19">
         <v>108</v>
@@ -2465,11 +2642,11 @@
         <v>348</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="J18" s="48"/>
+        <v>78</v>
+      </c>
+      <c r="J18" s="74"/>
       <c r="K18" s="17"/>
-      <c r="L18" s="45"/>
+      <c r="L18" s="69"/>
       <c r="M18" s="35"/>
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
@@ -2592,7 +2769,7 @@
       <c r="T1" s="42"/>
     </row>
     <row r="2" spans="1:20" ht="60.75">
-      <c r="A2" s="45">
+      <c r="A2" s="69">
         <v>6486</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -2619,11 +2796,11 @@
       <c r="I2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="J2" s="70" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="17"/>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="71" t="s">
         <v>25</v>
       </c>
       <c r="M2" s="35"/>
@@ -2636,7 +2813,7 @@
       <c r="T2" s="17"/>
     </row>
     <row r="3" spans="1:20" ht="152.25">
-      <c r="A3" s="45"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
@@ -2655,9 +2832,9 @@
       <c r="I3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="43"/>
+      <c r="J3" s="70"/>
       <c r="K3" s="17"/>
-      <c r="L3" s="44"/>
+      <c r="L3" s="71"/>
       <c r="M3" s="36" t="s">
         <v>29</v>
       </c>
@@ -2670,7 +2847,7 @@
       <c r="T3" s="17"/>
     </row>
     <row r="4" spans="1:20" ht="106.5">
-      <c r="A4" s="45"/>
+      <c r="A4" s="69"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
@@ -2689,9 +2866,9 @@
       <c r="I4" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="43"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="17"/>
-      <c r="L4" s="44"/>
+      <c r="L4" s="71"/>
       <c r="M4" s="37"/>
       <c r="N4" s="17"/>
       <c r="O4" s="17"/>
@@ -2702,7 +2879,7 @@
       <c r="T4" s="17"/>
     </row>
     <row r="5" spans="1:20" ht="60.75">
-      <c r="A5" s="45"/>
+      <c r="A5" s="69"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
@@ -2721,9 +2898,9 @@
       <c r="I5" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="43"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="17"/>
-      <c r="L5" s="44"/>
+      <c r="L5" s="71"/>
       <c r="M5" s="37"/>
       <c r="N5" s="17"/>
       <c r="O5" s="17"/>
@@ -2761,11 +2938,11 @@
       <c r="I6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="46" t="s">
+      <c r="J6" s="72" t="s">
         <v>42</v>
       </c>
       <c r="K6" s="17"/>
-      <c r="L6" s="45" t="s">
+      <c r="L6" s="69" t="s">
         <v>25</v>
       </c>
       <c r="M6" s="37"/>
@@ -2797,9 +2974,9 @@
       <c r="I7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="47"/>
+      <c r="J7" s="73"/>
       <c r="K7" s="17"/>
-      <c r="L7" s="45"/>
+      <c r="L7" s="69"/>
       <c r="M7" s="37"/>
       <c r="N7" s="17"/>
       <c r="O7" s="17"/>
@@ -2829,9 +3006,9 @@
       <c r="I8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="47"/>
+      <c r="J8" s="73"/>
       <c r="K8" s="17"/>
-      <c r="L8" s="45"/>
+      <c r="L8" s="69"/>
       <c r="M8" s="37"/>
       <c r="N8" s="17"/>
       <c r="O8" s="17"/>
@@ -2848,20 +3025,20 @@
       <c r="D9" s="25"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9" s="5">
         <v>18</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="47"/>
+        <v>53</v>
+      </c>
+      <c r="J9" s="73"/>
       <c r="K9" s="17"/>
-      <c r="L9" s="45"/>
+      <c r="L9" s="69"/>
       <c r="M9" s="37"/>
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
@@ -2880,18 +3057,18 @@
         <v>30</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" s="47"/>
+        <v>56</v>
+      </c>
+      <c r="J10" s="73"/>
       <c r="K10" s="17"/>
-      <c r="L10" s="45"/>
+      <c r="L10" s="69"/>
       <c r="M10" s="38"/>
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
@@ -2910,7 +3087,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G11" s="5">
         <v>5</v>
@@ -2919,13 +3096,13 @@
         <v>11</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="48"/>
+        <v>58</v>
+      </c>
+      <c r="J11" s="74"/>
       <c r="K11" s="17"/>
-      <c r="L11" s="45"/>
+      <c r="L11" s="69"/>
       <c r="M11" s="39" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
@@ -2940,19 +3117,19 @@
         <v>5509</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12" s="25">
         <v>4532164</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G12" s="19">
         <v>4</v>
@@ -2961,15 +3138,15 @@
         <v>40</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="72" t="s">
         <v>24</v>
       </c>
       <c r="K12" s="17"/>
-      <c r="L12" s="45"/>
+      <c r="L12" s="69"/>
       <c r="M12" s="40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
@@ -2985,10 +3162,10 @@
       <c r="C13" s="31"/>
       <c r="D13" s="25"/>
       <c r="E13" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G13" s="19">
         <v>0</v>
@@ -2997,13 +3174,13 @@
         <v>435</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="J13" s="47"/>
+        <v>67</v>
+      </c>
+      <c r="J13" s="73"/>
       <c r="K13" s="17"/>
-      <c r="L13" s="45"/>
+      <c r="L13" s="69"/>
       <c r="M13" s="41" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
@@ -3019,10 +3196,10 @@
       <c r="C14" s="31"/>
       <c r="D14" s="25"/>
       <c r="E14" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G14" s="19">
         <v>0</v>
@@ -3031,11 +3208,11 @@
         <v>170</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="J14" s="47"/>
+        <v>69</v>
+      </c>
+      <c r="J14" s="73"/>
       <c r="K14" s="17"/>
-      <c r="L14" s="45"/>
+      <c r="L14" s="69"/>
       <c r="M14" s="35"/>
       <c r="N14" s="17"/>
       <c r="O14" s="17"/>
@@ -3051,23 +3228,23 @@
       <c r="C15" s="31"/>
       <c r="D15" s="25"/>
       <c r="E15" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G15" s="34">
         <v>31</v>
       </c>
       <c r="H15" s="34"/>
       <c r="I15" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="J15" s="47"/>
+        <v>72</v>
+      </c>
+      <c r="J15" s="73"/>
       <c r="K15" s="33">
         <v>0.33</v>
       </c>
-      <c r="L15" s="45"/>
+      <c r="L15" s="69"/>
       <c r="M15" s="35"/>
       <c r="N15" s="17"/>
       <c r="O15" s="17"/>
@@ -3086,7 +3263,7 @@
         <v>30</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G16" s="19">
         <v>0</v>
@@ -3095,11 +3272,11 @@
         <v>50</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="J16" s="47"/>
+        <v>74</v>
+      </c>
+      <c r="J16" s="73"/>
       <c r="K16" s="17"/>
-      <c r="L16" s="45"/>
+      <c r="L16" s="69"/>
       <c r="M16" s="35"/>
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
@@ -3118,7 +3295,7 @@
         <v>30</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G17" s="19">
         <v>0</v>
@@ -3127,11 +3304,11 @@
         <v>14</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="J17" s="47"/>
+        <v>76</v>
+      </c>
+      <c r="J17" s="73"/>
       <c r="K17" s="17"/>
-      <c r="L17" s="45"/>
+      <c r="L17" s="69"/>
       <c r="M17" s="35"/>
       <c r="N17" s="17"/>
       <c r="O17" s="17"/>
@@ -3147,10 +3324,10 @@
       <c r="C18" s="32"/>
       <c r="D18" s="25"/>
       <c r="E18" s="18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G18" s="19">
         <v>108</v>
@@ -3159,11 +3336,11 @@
         <v>348</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="J18" s="48"/>
+        <v>78</v>
+      </c>
+      <c r="J18" s="74"/>
       <c r="K18" s="17"/>
-      <c r="L18" s="45"/>
+      <c r="L18" s="69"/>
       <c r="M18" s="35"/>
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
@@ -3219,160 +3396,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="49" t="s">
-        <v>80</v>
+      <c r="A2" s="75" t="s">
+        <v>81</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="49"/>
+      <c r="A3" s="75"/>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="49"/>
+      <c r="A4" s="75"/>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="50" t="s">
-        <v>85</v>
+      <c r="A5" s="76" t="s">
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="50"/>
+      <c r="A6" s="76"/>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="50"/>
+      <c r="A7" s="76"/>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="50"/>
+      <c r="A8" s="76"/>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="50"/>
+      <c r="A9" s="76"/>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="51" t="s">
-        <v>96</v>
+      <c r="A10" s="77" t="s">
+        <v>97</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="51"/>
+      <c r="A11" s="77"/>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="52" t="s">
-        <v>99</v>
+      <c r="A12" s="78" t="s">
+        <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="52"/>
+      <c r="A13" s="78"/>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="52"/>
+      <c r="A14" s="78"/>
       <c r="B14" t="s">
         <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s">
         <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/01_Input/00_CO Validation/Mauritius - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Mauritius - Energy Projects.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27109"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="382" documentId="11_22A4E67450481778D11D2BA3F348756C7829339C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A904EC2D-5628-413B-9A00-A84CB28D3C13}"/>
+  <xr:revisionPtr revIDLastSave="397" documentId="11_22A4E67450481778D11D2BA3F348756C7829339C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDAD8C55-CC1D-46C0-86D5-96E6996E7348}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="114">
   <si>
     <t>Project ID</t>
   </si>
@@ -84,6 +84,9 @@
     <t>RISE Taxonomy</t>
   </si>
   <si>
+    <t>Impact Tier</t>
+  </si>
+  <si>
     <t>Flagship</t>
   </si>
   <si>
@@ -112,6 +115,9 @@
   </si>
   <si>
     <t>VF</t>
+  </si>
+  <si>
+    <t>Renewable Energy</t>
   </si>
   <si>
     <t>Campaign Participant</t>
@@ -153,6 +159,9 @@
     <t>Approved Gender-responsive Policy and Regulatory Framework documents endorsed and approved by the Cabinet/Parliament</t>
   </si>
   <si>
+    <t>Tier 2</t>
+  </si>
+  <si>
     <t>Transport Services</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
   </si>
   <si>
     <t>Government is fully supporting the project and is maintaining policy of promoting renewable energy. As a result, the Mauritius Renewable Energy Agency (MARENA) is in place and is functioning under the aegis of the Ministry of Energy and Public Utilities.</t>
+  </si>
+  <si>
+    <t>Tier 1</t>
   </si>
   <si>
     <t>Actual MW installed by category</t>
@@ -292,6 +304,9 @@
       <t>Project ID: 5509
 Project Title:Realising  Energy Savings and Climate Benefits of implementing Mandatory EEnergy Auditing in the Republic of Mauritius</t>
     </r>
+  </si>
+  <si>
+    <t>Energy Efficiency</t>
   </si>
   <si>
     <t>Small Enterprises</t>
@@ -507,7 +522,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -577,6 +592,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,7 +770,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -866,78 +887,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -966,6 +915,145 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1272,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1EA8529-86F5-4E00-BF5D-B1BB315D4BA2}">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1287,694 +1375,762 @@
     <col min="8" max="8" width="19.5703125" style="4" customWidth="1"/>
     <col min="9" max="9" width="50.85546875" customWidth="1"/>
     <col min="13" max="13" width="56.5703125" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:20">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="L1" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="42" t="s">
+      <c r="N1" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="42" t="s">
+      <c r="O1" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="42" t="s">
+      <c r="P1" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="42" t="s">
+      <c r="Q1" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="42" t="s">
+      <c r="R1" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="42" t="s">
+      <c r="S1" s="56" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="60.75">
-      <c r="A2" s="52">
+      <c r="T1" s="56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="60.75">
+      <c r="A2" s="59">
         <v>6486</v>
       </c>
-      <c r="B2" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="55" t="s">
+      <c r="B2" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="50">
+      <c r="C2" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="61">
         <v>5600607</v>
       </c>
-      <c r="E2" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="8">
+      <c r="F2" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="64">
         <v>0</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="64">
         <v>0.75</v>
       </c>
-      <c r="I2" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="44" t="s">
+      <c r="I2" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="65"/>
-      <c r="L2" s="49" t="s">
+      <c r="J2" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="65"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-    </row>
-    <row r="3" spans="1:19" ht="152.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="47" t="s">
+      <c r="K2" s="67"/>
+      <c r="L2" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="M2" s="67"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="24">
+      <c r="Q2" s="70"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+    </row>
+    <row r="3" spans="1:20" ht="152.25">
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="64">
         <v>0</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="64">
         <v>700000</v>
       </c>
-      <c r="I3" s="63" t="s">
+      <c r="I3" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="67"/>
+      <c r="L3" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+    </row>
+    <row r="4" spans="1:20" ht="106.5">
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="64">
+        <v>0</v>
+      </c>
+      <c r="H4" s="64">
+        <v>1</v>
+      </c>
+      <c r="I4" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="67"/>
+      <c r="L4" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="76"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
+    </row>
+    <row r="5" spans="1:20" ht="60.75">
+      <c r="A5" s="71"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="64">
+        <v>21000</v>
+      </c>
+      <c r="I5" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="67"/>
+      <c r="L5" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="76"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="69"/>
+      <c r="P5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="69"/>
+      <c r="T5" s="69"/>
+    </row>
+    <row r="6" spans="1:20" ht="148.5" customHeight="1">
+      <c r="A6" s="59">
+        <v>5681</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="61">
+        <v>28210000</v>
+      </c>
+      <c r="E6" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="64">
+        <v>252178</v>
+      </c>
+      <c r="H6" s="64">
+        <v>441315</v>
+      </c>
+      <c r="I6" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="69"/>
+      <c r="L6" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="83"/>
+      <c r="N6" s="69"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="69"/>
+      <c r="S6" s="69"/>
+      <c r="T6" s="69"/>
+    </row>
+    <row r="7" spans="1:20" ht="151.5" customHeight="1">
+      <c r="A7" s="71"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="80">
+        <v>0</v>
+      </c>
+      <c r="H7" s="64">
+        <v>196000</v>
+      </c>
+      <c r="I7" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="69"/>
+      <c r="L7" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="83"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="69"/>
+    </row>
+    <row r="8" spans="1:20" ht="105" customHeight="1">
+      <c r="A8" s="71"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="80" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="69"/>
+      <c r="L8" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="83"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+    </row>
+    <row r="9" spans="1:20" ht="147.75" customHeight="1">
+      <c r="A9" s="71"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="80" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="80">
+        <v>18</v>
+      </c>
+      <c r="I9" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="69"/>
+      <c r="L9" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="83"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+    </row>
+    <row r="10" spans="1:20" ht="86.25" customHeight="1">
+      <c r="A10" s="71"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="80"/>
+      <c r="I10" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="69"/>
+      <c r="L10" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" s="85"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
+    </row>
+    <row r="11" spans="1:20" ht="262.5" customHeight="1">
+      <c r="A11" s="86"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="79" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="80" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="80">
+        <v>5</v>
+      </c>
+      <c r="H11" s="80">
+        <v>11</v>
+      </c>
+      <c r="I11" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="69"/>
+      <c r="L11" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="69"/>
+    </row>
+    <row r="12" spans="1:20" ht="106.5">
+      <c r="A12" s="72">
+        <v>5509</v>
+      </c>
+      <c r="B12" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="72">
+        <v>4532164</v>
+      </c>
+      <c r="E12" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="91">
+        <v>4</v>
+      </c>
+      <c r="H12" s="91">
+        <v>40</v>
+      </c>
+      <c r="I12" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="69"/>
+      <c r="L12" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="93" t="s">
+        <v>68</v>
+      </c>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="69"/>
+    </row>
+    <row r="13" spans="1:20" ht="30.75">
+      <c r="A13" s="72"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="91">
+        <v>0</v>
+      </c>
+      <c r="H13" s="91">
+        <v>435</v>
+      </c>
+      <c r="I13" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="69"/>
+      <c r="L13" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="69"/>
+    </row>
+    <row r="14" spans="1:20" ht="45.75">
+      <c r="A14" s="72"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="91">
+        <v>0</v>
+      </c>
+      <c r="H14" s="91">
+        <v>170</v>
+      </c>
+      <c r="I14" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="69"/>
+      <c r="L14" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="95"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
+      <c r="P14" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="69"/>
+      <c r="S14" s="69"/>
+      <c r="T14" s="69"/>
+    </row>
+    <row r="15" spans="1:20" ht="76.5">
+      <c r="A15" s="72"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="90" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="91"/>
+      <c r="H15" s="91">
+        <v>31</v>
+      </c>
+      <c r="I15" s="96" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="97">
+        <v>0.33</v>
+      </c>
+      <c r="L15" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="95"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="69"/>
+    </row>
+    <row r="16" spans="1:20" ht="81">
+      <c r="A16" s="72"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="65"/>
-      <c r="L3" s="49" t="s">
+      <c r="F16" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="104">
+        <v>0</v>
+      </c>
+      <c r="H16" s="104">
+        <v>50</v>
+      </c>
+      <c r="I16" s="105" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-    </row>
-    <row r="4" spans="1:19" ht="106.5">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="8">
+      <c r="K16" s="69"/>
+      <c r="L16" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="95"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="69"/>
+    </row>
+    <row r="17" spans="1:20" ht="76.5">
+      <c r="A17" s="72"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="91">
         <v>0</v>
       </c>
-      <c r="H4" s="8">
-        <v>1</v>
-      </c>
-      <c r="I4" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="65"/>
-      <c r="L4" s="49" t="s">
+      <c r="H17" s="91">
+        <v>14</v>
+      </c>
+      <c r="I17" s="96" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="67"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-    </row>
-    <row r="5" spans="1:19" ht="60.75">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="8">
-        <v>21000</v>
-      </c>
-      <c r="I5" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="65"/>
-      <c r="L5" s="49" t="s">
+      <c r="K17" s="69"/>
+      <c r="L17" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="95"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q17" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="69"/>
+    </row>
+    <row r="18" spans="1:20" ht="106.5">
+      <c r="A18" s="68"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="91">
+        <v>108</v>
+      </c>
+      <c r="H18" s="91">
+        <v>348</v>
+      </c>
+      <c r="I18" s="100" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-    </row>
-    <row r="6" spans="1:19" ht="148.5" customHeight="1">
-      <c r="A6" s="52">
-        <v>5681</v>
-      </c>
-      <c r="B6" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="50">
-        <v>28210000</v>
-      </c>
-      <c r="E6" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="6">
-        <v>252178</v>
-      </c>
-      <c r="H6" s="6">
-        <v>441315</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="37"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-    </row>
-    <row r="7" spans="1:19" ht="151.5" customHeight="1">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>196000</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="37"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-    </row>
-    <row r="8" spans="1:19" ht="105" customHeight="1">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="17"/>
-      <c r="L8" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="37"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-    </row>
-    <row r="9" spans="1:19" ht="147.75" customHeight="1">
-      <c r="A9" s="53"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="E9" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="5">
-        <v>18</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="M9" s="37"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-    </row>
-    <row r="10" spans="1:19" ht="86.25" customHeight="1">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="38"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-    </row>
-    <row r="11" spans="1:19" ht="262.5" customHeight="1">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="61" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="5">
-        <v>5</v>
-      </c>
-      <c r="H11" s="5">
-        <v>11</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="17"/>
-      <c r="L11" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-    </row>
-    <row r="12" spans="1:19" ht="106.5">
-      <c r="A12" s="51">
-        <v>5509</v>
-      </c>
-      <c r="B12" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="51">
-        <v>4532164</v>
-      </c>
-      <c r="E12" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="19">
-        <v>4</v>
-      </c>
-      <c r="H12" s="19">
-        <v>40</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-    </row>
-    <row r="13" spans="1:19" ht="30.75">
-      <c r="A13" s="51"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" s="19">
-        <v>0</v>
-      </c>
-      <c r="H13" s="19">
-        <v>435</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="17"/>
-      <c r="L13" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="M13" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-    </row>
-    <row r="14" spans="1:19" ht="45.75">
-      <c r="A14" s="51"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="19">
-        <v>0</v>
-      </c>
-      <c r="H14" s="19">
-        <v>170</v>
-      </c>
-      <c r="I14" s="11" t="s">
+      <c r="K18" s="101"/>
+      <c r="L18" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="95"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="J14" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="M14" s="35"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-    </row>
-    <row r="15" spans="1:19" ht="76.5">
-      <c r="A15" s="51"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34">
-        <v>31</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="J15" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="33">
-        <v>0.33</v>
-      </c>
-      <c r="L15" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" s="35"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-    </row>
-    <row r="16" spans="1:19" ht="81">
-      <c r="A16" s="51"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="19">
-        <v>0</v>
-      </c>
-      <c r="H16" s="19">
-        <v>50</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="J16" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="M16" s="35"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-    </row>
-    <row r="17" spans="1:19" ht="76.5">
-      <c r="A17" s="51"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="19">
-        <v>0</v>
-      </c>
-      <c r="H17" s="19">
-        <v>14</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="J17" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" s="17"/>
-      <c r="L17" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" s="35"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-    </row>
-    <row r="18" spans="1:19" ht="106.5">
-      <c r="A18" s="49"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" s="19">
-        <v>108</v>
-      </c>
-      <c r="H18" s="19">
-        <v>348</v>
-      </c>
-      <c r="I18" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="J18" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" s="64"/>
-      <c r="L18" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="M18" s="35"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="69"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E7" xr:uid="{ACE05F1D-CAE5-4EDA-A504-3E8FC4C61FB0}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q18" xr:uid="{ADB713D9-2155-4F34-9D1D-CD9E6A7B2541}">
+      <formula1>"Tier 1, Tier 2, Tier 3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P18" xr:uid="{B9FBFA70-C3E6-461A-ACE3-5CBB2B58B4F9}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{3D966F76-EC1C-41C6-B94A-6CA9ED00DEB0}"/>
@@ -2064,34 +2220,34 @@
         <v>15</v>
       </c>
       <c r="Q1" s="42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R1" s="42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S1" s="42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T1" s="42"/>
     </row>
     <row r="2" spans="1:20" ht="60.75">
-      <c r="A2" s="69">
+      <c r="A2" s="43">
         <v>6486</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="25">
         <v>5600607</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="8">
         <v>0</v>
@@ -2100,14 +2256,14 @@
         <v>0.75</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="70" t="s">
         <v>24</v>
       </c>
+      <c r="J2" s="44" t="s">
+        <v>25</v>
+      </c>
       <c r="K2" s="17"/>
-      <c r="L2" s="71" t="s">
-        <v>25</v>
+      <c r="L2" s="45" t="s">
+        <v>26</v>
       </c>
       <c r="M2" s="35"/>
       <c r="N2" s="17"/>
@@ -2119,15 +2275,15 @@
       <c r="T2" s="17"/>
     </row>
     <row r="3" spans="1:20" ht="152.25">
-      <c r="A3" s="69"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
       <c r="E3" s="22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" s="24">
         <v>0</v>
@@ -2136,13 +2292,13 @@
         <v>700000</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="70"/>
+        <v>30</v>
+      </c>
+      <c r="J3" s="44"/>
       <c r="K3" s="17"/>
-      <c r="L3" s="71"/>
+      <c r="L3" s="45"/>
       <c r="M3" s="36" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N3" s="17"/>
       <c r="O3" s="17"/>
@@ -2153,15 +2309,15 @@
       <c r="T3" s="17"/>
     </row>
     <row r="4" spans="1:20" ht="106.5">
-      <c r="A4" s="69"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
       <c r="E4" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G4" s="8">
         <v>0</v>
@@ -2170,11 +2326,11 @@
         <v>1</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="70"/>
+        <v>34</v>
+      </c>
+      <c r="J4" s="44"/>
       <c r="K4" s="17"/>
-      <c r="L4" s="71"/>
+      <c r="L4" s="45"/>
       <c r="M4" s="37"/>
       <c r="N4" s="17"/>
       <c r="O4" s="17"/>
@@ -2185,28 +2341,28 @@
       <c r="T4" s="17"/>
     </row>
     <row r="5" spans="1:20" ht="60.75">
-      <c r="A5" s="69"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H5" s="8">
         <v>21000</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="70"/>
+        <v>39</v>
+      </c>
+      <c r="J5" s="44"/>
       <c r="K5" s="17"/>
-      <c r="L5" s="71"/>
+      <c r="L5" s="45"/>
       <c r="M5" s="37"/>
       <c r="N5" s="17"/>
       <c r="O5" s="17"/>
@@ -2221,19 +2377,19 @@
         <v>5681</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D6" s="25">
         <v>28210000</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G6" s="6">
         <v>252178</v>
@@ -2242,14 +2398,14 @@
         <v>441315</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="72" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="J6" s="46" t="s">
+        <v>45</v>
       </c>
       <c r="K6" s="17"/>
-      <c r="L6" s="69" t="s">
-        <v>25</v>
+      <c r="L6" s="43" t="s">
+        <v>26</v>
       </c>
       <c r="M6" s="37"/>
       <c r="N6" s="17"/>
@@ -2266,10 +2422,10 @@
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
       <c r="E7" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
@@ -2278,11 +2434,11 @@
         <v>196000</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="73"/>
+        <v>48</v>
+      </c>
+      <c r="J7" s="47"/>
       <c r="K7" s="17"/>
-      <c r="L7" s="69"/>
+      <c r="L7" s="43"/>
       <c r="M7" s="37"/>
       <c r="N7" s="17"/>
       <c r="O7" s="17"/>
@@ -2298,23 +2454,23 @@
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="73"/>
+        <v>52</v>
+      </c>
+      <c r="J8" s="47"/>
       <c r="K8" s="17"/>
-      <c r="L8" s="69"/>
+      <c r="L8" s="43"/>
       <c r="M8" s="37"/>
       <c r="N8" s="17"/>
       <c r="O8" s="17"/>
@@ -2331,20 +2487,20 @@
       <c r="D9" s="25"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H9" s="5">
         <v>18</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="73"/>
+        <v>56</v>
+      </c>
+      <c r="J9" s="47"/>
       <c r="K9" s="17"/>
-      <c r="L9" s="69"/>
+      <c r="L9" s="43"/>
       <c r="M9" s="37"/>
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
@@ -2360,21 +2516,21 @@
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
       <c r="E10" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="73"/>
+        <v>59</v>
+      </c>
+      <c r="J10" s="47"/>
       <c r="K10" s="17"/>
-      <c r="L10" s="69"/>
+      <c r="L10" s="43"/>
       <c r="M10" s="38"/>
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
@@ -2390,10 +2546,10 @@
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
       <c r="E11" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G11" s="5">
         <v>5</v>
@@ -2402,13 +2558,13 @@
         <v>11</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="74"/>
+        <v>62</v>
+      </c>
+      <c r="J11" s="48"/>
       <c r="K11" s="17"/>
-      <c r="L11" s="69"/>
+      <c r="L11" s="43"/>
       <c r="M11" s="39" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
@@ -2423,19 +2579,19 @@
         <v>5509</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D12" s="25">
         <v>4532164</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G12" s="19">
         <v>4</v>
@@ -2444,15 +2600,15 @@
         <v>40</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" s="72" t="s">
-        <v>24</v>
+        <v>67</v>
+      </c>
+      <c r="J12" s="46" t="s">
+        <v>25</v>
       </c>
       <c r="K12" s="17"/>
-      <c r="L12" s="69"/>
+      <c r="L12" s="43"/>
       <c r="M12" s="40" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
@@ -2468,10 +2624,10 @@
       <c r="C13" s="31"/>
       <c r="D13" s="25"/>
       <c r="E13" s="18" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G13" s="19">
         <v>0</v>
@@ -2480,13 +2636,13 @@
         <v>435</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" s="73"/>
+        <v>72</v>
+      </c>
+      <c r="J13" s="47"/>
       <c r="K13" s="17"/>
-      <c r="L13" s="69"/>
+      <c r="L13" s="43"/>
       <c r="M13" s="41" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
@@ -2502,10 +2658,10 @@
       <c r="C14" s="31"/>
       <c r="D14" s="25"/>
       <c r="E14" s="18" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G14" s="19">
         <v>0</v>
@@ -2514,11 +2670,11 @@
         <v>170</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" s="73"/>
+        <v>74</v>
+      </c>
+      <c r="J14" s="47"/>
       <c r="K14" s="17"/>
-      <c r="L14" s="69"/>
+      <c r="L14" s="43"/>
       <c r="M14" s="35"/>
       <c r="N14" s="17"/>
       <c r="O14" s="17"/>
@@ -2534,23 +2690,23 @@
       <c r="C15" s="31"/>
       <c r="D15" s="25"/>
       <c r="E15" s="18" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G15" s="34">
         <v>31</v>
       </c>
       <c r="H15" s="34"/>
       <c r="I15" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="J15" s="73"/>
+        <v>77</v>
+      </c>
+      <c r="J15" s="47"/>
       <c r="K15" s="33">
         <v>0.33</v>
       </c>
-      <c r="L15" s="69"/>
+      <c r="L15" s="43"/>
       <c r="M15" s="35"/>
       <c r="N15" s="17"/>
       <c r="O15" s="17"/>
@@ -2566,10 +2722,10 @@
       <c r="C16" s="31"/>
       <c r="D16" s="25"/>
       <c r="E16" s="18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G16" s="19">
         <v>0</v>
@@ -2578,11 +2734,11 @@
         <v>50</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="J16" s="73"/>
+        <v>79</v>
+      </c>
+      <c r="J16" s="47"/>
       <c r="K16" s="17"/>
-      <c r="L16" s="69"/>
+      <c r="L16" s="43"/>
       <c r="M16" s="35"/>
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
@@ -2598,10 +2754,10 @@
       <c r="C17" s="31"/>
       <c r="D17" s="25"/>
       <c r="E17" s="18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G17" s="19">
         <v>0</v>
@@ -2610,11 +2766,11 @@
         <v>14</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="J17" s="73"/>
+        <v>81</v>
+      </c>
+      <c r="J17" s="47"/>
       <c r="K17" s="17"/>
-      <c r="L17" s="69"/>
+      <c r="L17" s="43"/>
       <c r="M17" s="35"/>
       <c r="N17" s="17"/>
       <c r="O17" s="17"/>
@@ -2630,10 +2786,10 @@
       <c r="C18" s="32"/>
       <c r="D18" s="25"/>
       <c r="E18" s="18" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G18" s="19">
         <v>108</v>
@@ -2642,11 +2798,11 @@
         <v>348</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="J18" s="74"/>
+        <v>83</v>
+      </c>
+      <c r="J18" s="48"/>
       <c r="K18" s="17"/>
-      <c r="L18" s="69"/>
+      <c r="L18" s="43"/>
       <c r="M18" s="35"/>
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
@@ -2758,34 +2914,34 @@
         <v>15</v>
       </c>
       <c r="Q1" s="42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R1" s="42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S1" s="42" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T1" s="42"/>
     </row>
     <row r="2" spans="1:20" ht="60.75">
-      <c r="A2" s="69">
+      <c r="A2" s="43">
         <v>6486</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="25">
         <v>5600607</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="8">
         <v>0</v>
@@ -2794,14 +2950,14 @@
         <v>0.75</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="70" t="s">
         <v>24</v>
       </c>
+      <c r="J2" s="44" t="s">
+        <v>25</v>
+      </c>
       <c r="K2" s="17"/>
-      <c r="L2" s="71" t="s">
-        <v>25</v>
+      <c r="L2" s="45" t="s">
+        <v>26</v>
       </c>
       <c r="M2" s="35"/>
       <c r="N2" s="17"/>
@@ -2813,15 +2969,15 @@
       <c r="T2" s="17"/>
     </row>
     <row r="3" spans="1:20" ht="152.25">
-      <c r="A3" s="69"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
       <c r="E3" s="22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" s="24">
         <v>0</v>
@@ -2830,13 +2986,13 @@
         <v>700000</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="70"/>
+        <v>30</v>
+      </c>
+      <c r="J3" s="44"/>
       <c r="K3" s="17"/>
-      <c r="L3" s="71"/>
+      <c r="L3" s="45"/>
       <c r="M3" s="36" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N3" s="17"/>
       <c r="O3" s="17"/>
@@ -2847,15 +3003,15 @@
       <c r="T3" s="17"/>
     </row>
     <row r="4" spans="1:20" ht="106.5">
-      <c r="A4" s="69"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
       <c r="D4" s="25"/>
       <c r="E4" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G4" s="8">
         <v>0</v>
@@ -2864,11 +3020,11 @@
         <v>1</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="70"/>
+        <v>34</v>
+      </c>
+      <c r="J4" s="44"/>
       <c r="K4" s="17"/>
-      <c r="L4" s="71"/>
+      <c r="L4" s="45"/>
       <c r="M4" s="37"/>
       <c r="N4" s="17"/>
       <c r="O4" s="17"/>
@@ -2879,28 +3035,28 @@
       <c r="T4" s="17"/>
     </row>
     <row r="5" spans="1:20" ht="60.75">
-      <c r="A5" s="69"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H5" s="8">
         <v>21000</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="70"/>
+        <v>39</v>
+      </c>
+      <c r="J5" s="44"/>
       <c r="K5" s="17"/>
-      <c r="L5" s="71"/>
+      <c r="L5" s="45"/>
       <c r="M5" s="37"/>
       <c r="N5" s="17"/>
       <c r="O5" s="17"/>
@@ -2915,19 +3071,19 @@
         <v>5681</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D6" s="25">
         <v>28210000</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G6" s="6">
         <v>252178</v>
@@ -2936,14 +3092,14 @@
         <v>441315</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" s="72" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="J6" s="46" t="s">
+        <v>45</v>
       </c>
       <c r="K6" s="17"/>
-      <c r="L6" s="69" t="s">
-        <v>25</v>
+      <c r="L6" s="43" t="s">
+        <v>26</v>
       </c>
       <c r="M6" s="37"/>
       <c r="N6" s="17"/>
@@ -2960,10 +3116,10 @@
       <c r="C7" s="25"/>
       <c r="D7" s="25"/>
       <c r="E7" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
@@ -2972,11 +3128,11 @@
         <v>196000</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="73"/>
+        <v>48</v>
+      </c>
+      <c r="J7" s="47"/>
       <c r="K7" s="17"/>
-      <c r="L7" s="69"/>
+      <c r="L7" s="43"/>
       <c r="M7" s="37"/>
       <c r="N7" s="17"/>
       <c r="O7" s="17"/>
@@ -2992,23 +3148,23 @@
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="73"/>
+        <v>52</v>
+      </c>
+      <c r="J8" s="47"/>
       <c r="K8" s="17"/>
-      <c r="L8" s="69"/>
+      <c r="L8" s="43"/>
       <c r="M8" s="37"/>
       <c r="N8" s="17"/>
       <c r="O8" s="17"/>
@@ -3025,20 +3181,20 @@
       <c r="D9" s="25"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H9" s="5">
         <v>18</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="J9" s="73"/>
+        <v>56</v>
+      </c>
+      <c r="J9" s="47"/>
       <c r="K9" s="17"/>
-      <c r="L9" s="69"/>
+      <c r="L9" s="43"/>
       <c r="M9" s="37"/>
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
@@ -3054,21 +3210,21 @@
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
       <c r="E10" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="73"/>
+        <v>59</v>
+      </c>
+      <c r="J10" s="47"/>
       <c r="K10" s="17"/>
-      <c r="L10" s="69"/>
+      <c r="L10" s="43"/>
       <c r="M10" s="38"/>
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
@@ -3084,10 +3240,10 @@
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
       <c r="E11" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G11" s="5">
         <v>5</v>
@@ -3096,13 +3252,13 @@
         <v>11</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J11" s="74"/>
+        <v>62</v>
+      </c>
+      <c r="J11" s="48"/>
       <c r="K11" s="17"/>
-      <c r="L11" s="69"/>
+      <c r="L11" s="43"/>
       <c r="M11" s="39" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="N11" s="17"/>
       <c r="O11" s="17"/>
@@ -3117,19 +3273,19 @@
         <v>5509</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D12" s="25">
         <v>4532164</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G12" s="19">
         <v>4</v>
@@ -3138,15 +3294,15 @@
         <v>40</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="J12" s="72" t="s">
-        <v>24</v>
+        <v>67</v>
+      </c>
+      <c r="J12" s="46" t="s">
+        <v>25</v>
       </c>
       <c r="K12" s="17"/>
-      <c r="L12" s="69"/>
+      <c r="L12" s="43"/>
       <c r="M12" s="40" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
@@ -3162,10 +3318,10 @@
       <c r="C13" s="31"/>
       <c r="D13" s="25"/>
       <c r="E13" s="18" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G13" s="19">
         <v>0</v>
@@ -3174,13 +3330,13 @@
         <v>435</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" s="73"/>
+        <v>72</v>
+      </c>
+      <c r="J13" s="47"/>
       <c r="K13" s="17"/>
-      <c r="L13" s="69"/>
+      <c r="L13" s="43"/>
       <c r="M13" s="41" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="N13" s="17"/>
       <c r="O13" s="17"/>
@@ -3196,10 +3352,10 @@
       <c r="C14" s="31"/>
       <c r="D14" s="25"/>
       <c r="E14" s="18" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G14" s="19">
         <v>0</v>
@@ -3208,11 +3364,11 @@
         <v>170</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="J14" s="73"/>
+        <v>74</v>
+      </c>
+      <c r="J14" s="47"/>
       <c r="K14" s="17"/>
-      <c r="L14" s="69"/>
+      <c r="L14" s="43"/>
       <c r="M14" s="35"/>
       <c r="N14" s="17"/>
       <c r="O14" s="17"/>
@@ -3228,23 +3384,23 @@
       <c r="C15" s="31"/>
       <c r="D15" s="25"/>
       <c r="E15" s="18" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G15" s="34">
         <v>31</v>
       </c>
       <c r="H15" s="34"/>
       <c r="I15" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="J15" s="73"/>
+        <v>77</v>
+      </c>
+      <c r="J15" s="47"/>
       <c r="K15" s="33">
         <v>0.33</v>
       </c>
-      <c r="L15" s="69"/>
+      <c r="L15" s="43"/>
       <c r="M15" s="35"/>
       <c r="N15" s="17"/>
       <c r="O15" s="17"/>
@@ -3260,10 +3416,10 @@
       <c r="C16" s="31"/>
       <c r="D16" s="25"/>
       <c r="E16" s="18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G16" s="19">
         <v>0</v>
@@ -3272,11 +3428,11 @@
         <v>50</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="J16" s="73"/>
+        <v>79</v>
+      </c>
+      <c r="J16" s="47"/>
       <c r="K16" s="17"/>
-      <c r="L16" s="69"/>
+      <c r="L16" s="43"/>
       <c r="M16" s="35"/>
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
@@ -3292,10 +3448,10 @@
       <c r="C17" s="31"/>
       <c r="D17" s="25"/>
       <c r="E17" s="18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G17" s="19">
         <v>0</v>
@@ -3304,11 +3460,11 @@
         <v>14</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="J17" s="73"/>
+        <v>81</v>
+      </c>
+      <c r="J17" s="47"/>
       <c r="K17" s="17"/>
-      <c r="L17" s="69"/>
+      <c r="L17" s="43"/>
       <c r="M17" s="35"/>
       <c r="N17" s="17"/>
       <c r="O17" s="17"/>
@@ -3324,10 +3480,10 @@
       <c r="C18" s="32"/>
       <c r="D18" s="25"/>
       <c r="E18" s="18" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G18" s="19">
         <v>108</v>
@@ -3336,11 +3492,11 @@
         <v>348</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="J18" s="74"/>
+        <v>83</v>
+      </c>
+      <c r="J18" s="48"/>
       <c r="K18" s="17"/>
-      <c r="L18" s="69"/>
+      <c r="L18" s="43"/>
       <c r="M18" s="35"/>
       <c r="N18" s="17"/>
       <c r="O18" s="17"/>
@@ -3396,160 +3552,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="75" t="s">
-        <v>81</v>
+      <c r="A2" s="49" t="s">
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="75"/>
+      <c r="A3" s="49"/>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="75"/>
+      <c r="A4" s="49"/>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="76" t="s">
-        <v>86</v>
+      <c r="A5" s="50" t="s">
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="76"/>
+      <c r="A6" s="50"/>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="76"/>
+      <c r="A7" s="50"/>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="76"/>
+      <c r="A8" s="50"/>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="76"/>
+      <c r="A9" s="50"/>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="77" t="s">
-        <v>97</v>
+      <c r="A10" s="51" t="s">
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="77"/>
+      <c r="A11" s="51"/>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="78" t="s">
-        <v>100</v>
+      <c r="A12" s="52" t="s">
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="78"/>
+      <c r="A13" s="52"/>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="78"/>
+      <c r="A14" s="52"/>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3564,6 +3720,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -3812,28 +3988,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A2994FF-555A-4817-9517-48283D9AFFB0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34ACB9F2-A8B7-4727-8BFC-2C58CAD1DCBF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3841,5 +3997,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34ACB9F2-A8B7-4727-8BFC-2C58CAD1DCBF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A2994FF-555A-4817-9517-48283D9AFFB0}"/>
 </file>